--- a/Resource/TushareDBInfo.xlsx
+++ b/Resource/TushareDBInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -709,18 +709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -794,22 +794,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -849,7 +849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -866,7 +866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -903,7 +903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -920,7 +920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1380,16 +1380,16 @@
       </c>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35"/>
     </row>
   </sheetData>

--- a/Resource/TushareDBInfo.xlsx
+++ b/Resource/TushareDBInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,46 @@
   </si>
   <si>
     <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_code</t>
+  </si>
+  <si>
+    <t>指数代码</t>
+  </si>
+  <si>
+    <t>con_code</t>
+  </si>
+  <si>
+    <t>成分代码</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>指数成分和权重</t>
+  </si>
+  <si>
+    <t>index_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数成分和权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>MarketTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000016.SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -776,6 +816,17 @@
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1381,15 +1432,77 @@
       <c r="F31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
       <c r="F33"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
       <c r="F34"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
       <c r="F35"/>
     </row>
   </sheetData>

--- a/Resource/TushareDBInfo.xlsx
+++ b/Resource/TushareDBInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -753,14 +753,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -796,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -845,22 +845,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -900,7 +900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -917,7 +917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -937,7 +937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -954,7 +954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -971,7 +971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -989,7 +989,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="F34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>102</v>
       </c>
